--- a/task_Farmstead.xlsx
+++ b/task_Farmstead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73395356f72537fe/Learning/IT/ZZZ.Cyber/FrontEnd/LESSON-09_CAPSTONE/Farmstead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_5854452665534D0524CD3E98A8FF263CD7B51536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{289174AB-2FB6-4C4F-A2B4-7F11C8F866CB}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="11_5854452665534D0524CD3E98A8FF263CD7B51536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F980F8-EE53-45D0-9388-64BAD5D3BBAB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -257,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -364,11 +367,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -380,62 +409,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,10 +713,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -689,46 +724,46 @@
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="8" customWidth="1"/>
     <col min="5" max="5" width="10" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24" style="9" customWidth="1"/>
+    <col min="6" max="6" width="24" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="9" customWidth="1"/>
+    <col min="10" max="10" width="27.75" style="8" customWidth="1"/>
     <col min="11" max="11" width="53.75" style="4" customWidth="1"/>
     <col min="12" max="27" width="7.625" style="4" customWidth="1"/>
     <col min="28" max="16384" width="12.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="22">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="21">
         <f ca="1">TODAY()</f>
-        <v>45145</v>
-      </c>
-      <c r="K1" s="23">
+        <v>45147</v>
+      </c>
+      <c r="K1" s="22">
         <f ca="1">NOW()</f>
-        <v>45145.899171296296</v>
+        <v>45147.037232175928</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -755,241 +790,277 @@
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>45115</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45115</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>45238</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="16">
+      <c r="H3" s="7"/>
+      <c r="I3" s="15">
         <v>0.95</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>45146</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>45146</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>45238</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="16">
+      <c r="H4" s="7"/>
+      <c r="I4" s="15">
         <v>1</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>45177</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>45177</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>45268</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="11" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>45207</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>45207</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>45268</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>45115</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>45115</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>45238</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45146</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45146</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7">
+        <v>45238</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="7">
         <v>45146</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="7">
         <v>45146</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="11" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="7">
         <v>45238</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="10" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="7">
         <v>45177</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="7">
         <v>45177</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="11" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="7">
         <v>45268</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="10" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B12" s="7">
         <v>45207</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="7">
         <v>45207</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="11" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="7">
         <v>45268</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="10" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E11 I4:I11">
+  <conditionalFormatting sqref="E3:E12 I4:I12">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/task_Farmstead.xlsx
+++ b/task_Farmstead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73395356f72537fe/Learning/IT/ZZZ.Cyber/FrontEnd/LESSON-09_CAPSTONE/Farmstead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_5854452665534D0524CD3E98A8FF263CD7B51536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F980F8-EE53-45D0-9388-64BAD5D3BBAB}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="11_5854452665534D0524CD3E98A8FF263CD7B51536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CCC597-4002-45DD-942C-F7B7B8788D25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Nguyễn Quang Mẫn</t>
   </si>
   <si>
-    <t>FOOTER &amp; BACKTOTOP</t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
@@ -116,6 +113,15 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>BACKTOTOP</t>
+  </si>
+  <si>
+    <t>FOOTER</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -713,10 +719,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -752,11 +758,11 @@
       <c r="I1" s="23"/>
       <c r="J1" s="21">
         <f ca="1">TODAY()</f>
-        <v>45147</v>
+        <v>45149</v>
       </c>
       <c r="K1" s="22">
         <f ca="1">NOW()</f>
-        <v>45147.037232175928</v>
+        <v>45149.462279398147</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
@@ -767,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -805,7 +811,7 @@
         <v>45115</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="15">
         <v>0</v>
@@ -836,7 +842,7 @@
         <v>45146</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="9" t="s">
@@ -865,7 +871,7 @@
         <v>45177</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="9" t="s">
@@ -930,7 +936,7 @@
         <v>45115</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="15">
         <v>1</v>
@@ -959,7 +965,7 @@
         <v>45146</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="15">
         <v>1</v>
@@ -1009,13 +1015,17 @@
         <v>16</v>
       </c>
       <c r="B11" s="7">
-        <v>45177</v>
+        <v>45207</v>
       </c>
       <c r="C11" s="7">
-        <v>45177</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="15"/>
+        <v>45207</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
       <c r="F11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1031,16 +1041,20 @@
     </row>
     <row r="12" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7">
-        <v>45207</v>
+        <v>45238</v>
       </c>
       <c r="C12" s="7">
-        <v>45207</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="15"/>
+        <v>45238</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.8</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>18</v>
       </c>
@@ -1053,6 +1067,31 @@
         <v>17</v>
       </c>
       <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45268</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45268</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7">
+        <v>45268</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1060,7 +1099,7 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="D9:D10"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E12 I4:I12">
+  <conditionalFormatting sqref="E3:E13 I4:I13">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>

--- a/task_Farmstead.xlsx
+++ b/task_Farmstead.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73395356f72537fe/Learning/IT/ZZZ.Cyber/FrontEnd/LESSON-09_CAPSTONE/Farmstead/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEP\OneDrive\Learning\IT\ZZZ.Cyber\FrontEnd\LESSON-09_CAPSTONE\Farmstead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="11_5854452665534D0524CD3E98A8FF263CD7B51536" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1CCC597-4002-45DD-942C-F7B7B8788D25}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="2490" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33480" yWindow="2496" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PLANNING" sheetId="1" r:id="rId1"/>
+    <sheet name="LAYOUT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -94,40 +94,46 @@
     <t>FEEDBACK</t>
   </si>
   <si>
-    <t>Nguyễn Thành Đạt</t>
-  </si>
-  <si>
     <t>Nguyễn Quang Mẫn</t>
   </si>
   <si>
     <t>Deadline</t>
   </si>
   <si>
-    <t>Total (h)</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>BACKTOTOP</t>
   </si>
   <si>
     <t>FOOTER</t>
   </si>
   <si>
-    <t>1h</t>
+    <t>ABOUT</t>
+  </si>
+  <si>
+    <t>13/8/2023</t>
+  </si>
+  <si>
+    <t>14/8/2023</t>
+  </si>
+  <si>
+    <t>15/8/2023</t>
+  </si>
+  <si>
+    <t>17/8/2023</t>
+  </si>
+  <si>
+    <t>95% vì không build được giống web mẫu khi roll thì đổi màu BG</t>
+  </si>
+  <si>
+    <t>18/8/2023</t>
+  </si>
+  <si>
+    <t>19/8/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
@@ -237,12 +243,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -265,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -373,37 +379,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,9 +398,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,40 +407,37 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,17 +446,25 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -516,6 +498,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>327286</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3009526" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,401 +746,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="8" customWidth="1"/>
-    <col min="11" max="11" width="53.75" style="4" customWidth="1"/>
-    <col min="12" max="27" width="7.625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="12.625" style="4"/>
+    <col min="2" max="2" width="17.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.8984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.69921875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="59.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="7.59765625" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="12.59765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="21">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45149</v>
-      </c>
-      <c r="K1" s="22">
+        <v>45157</v>
+      </c>
+      <c r="J1" s="20">
         <f ca="1">NOW()</f>
-        <v>45149.462279398147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+        <v>45157.935614814814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45115</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45115</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45146</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45146</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45146</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45146</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45207</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45207</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45238</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45238</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45115</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45115</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="7">
-        <v>45238</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45146</v>
-      </c>
-      <c r="C4" s="7">
-        <v>45146</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7">
-        <v>45238</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45177</v>
-      </c>
-      <c r="C5" s="7">
-        <v>45177</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="B13" s="6">
         <v>45268</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45207</v>
-      </c>
-      <c r="C6" s="7">
-        <v>45207</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="C13" s="6">
         <v>45268</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7">
-        <v>45115</v>
-      </c>
-      <c r="C8" s="7">
-        <v>45115</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7">
-        <v>45238</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>45146</v>
-      </c>
-      <c r="C9" s="7">
-        <v>45146</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7">
-        <v>45238</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45146</v>
-      </c>
-      <c r="C10" s="7">
-        <v>45146</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="7">
-        <v>45238</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45207</v>
-      </c>
-      <c r="C11" s="7">
-        <v>45207</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="7">
-        <v>45268</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="7">
-        <v>45238</v>
-      </c>
-      <c r="C12" s="7">
-        <v>45238</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="7">
-        <v>45268</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45268</v>
-      </c>
-      <c r="C13" s="7">
-        <v>45268</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="7">
-        <v>45268</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="14"/>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E13 I4:I13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="D3:D13 H4:H13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/task_Farmstead.xlsx
+++ b/task_Farmstead.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -121,13 +121,16 @@
     <t>17/8/2023</t>
   </si>
   <si>
-    <t>95% vì không build được giống web mẫu khi roll thì đổi màu BG</t>
-  </si>
-  <si>
     <t>18/8/2023</t>
   </si>
   <si>
-    <t>19/8/2023</t>
+    <t>20/8/2023</t>
+  </si>
+  <si>
+    <t>9 SECTION</t>
+  </si>
+  <si>
+    <t>95% vì không build được giống web mẫu khi scroll thì đổi màu BG</t>
   </si>
 </sst>
 </file>
@@ -138,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +200,16 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -383,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -440,31 +457,23 @@
     <xf numFmtId="14" fontId="6" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6EFCE"/>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -750,10 +759,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -767,31 +776,31 @@
     <col min="7" max="7" width="13.8984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
     <col min="9" max="9" width="27.69921875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="59.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="7.59765625" style="4" customWidth="1"/>
     <col min="27" max="16384" width="12.59765625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="21"/>
       <c r="H1" s="21"/>
       <c r="I1" s="19">
         <f ca="1">TODAY()</f>
-        <v>45157</v>
+        <v>45158</v>
       </c>
       <c r="J1" s="20">
         <f ca="1">NOW()</f>
-        <v>45157.935614814814</v>
+        <v>45158.902747106484</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.3">
@@ -839,15 +848,15 @@
       <c r="D3" s="13">
         <v>0.95</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" s="13">
         <v>1</v>
       </c>
@@ -855,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -871,14 +880,14 @@
       <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H4" s="13">
         <v>1</v>
@@ -901,14 +910,14 @@
       <c r="D5" s="13">
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H5" s="13">
         <v>1</v>
@@ -931,14 +940,14 @@
       <c r="D6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="13">
         <v>1</v>
@@ -977,15 +986,15 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H8" s="13">
         <v>1</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="12"/>
@@ -1007,15 +1016,15 @@
         <v>17</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="12"/>
@@ -1037,15 +1046,15 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="12"/>
@@ -1067,15 +1076,15 @@
         <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="12"/>
@@ -1097,15 +1106,15 @@
         <v>17</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="12"/>
@@ -1127,18 +1136,23 @@
         <v>17</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1146,12 +1160,12 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D13 H4:H13">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1164,7 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
